--- a/mathTransformed/HMPSTT_(2019-12-14)_58_4.xlsx
+++ b/mathTransformed/HMPSTT_(2019-12-14)_58_4.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F62"/>
+  <dimension ref="A1:H62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,11 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>Address</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>District</t>
         </is>
       </c>
@@ -483,6 +488,11 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>Govt. Girls High School Humnabad</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -510,6 +520,11 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>G H S BelagoduSakaleshapura</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -537,6 +552,11 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>G H S KeragoduHolenarsipura</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -564,6 +584,11 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>G H S AralalusandraBidadi</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>Ramanagar</t>
         </is>
       </c>
@@ -591,6 +616,11 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
+          <t>G H S MugalkhodMudhol</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>Bagalkot</t>
         </is>
       </c>
@@ -618,6 +648,11 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>G H S DhavaleshwarMudhol</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>Bagalkot</t>
         </is>
       </c>
@@ -642,6 +677,11 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
+          <t>Govt. Adarsh Vidyalaya BemalkhedHumnabad</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -669,6 +709,11 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
+          <t>G H S KudumalligeThirthahalli</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>Shivamogga</t>
         </is>
       </c>
@@ -696,6 +741,11 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
+          <t>Malnad High School Hirejambur Shikaripur</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>Shivamogga</t>
         </is>
       </c>
@@ -723,6 +773,11 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
+          <t>G H S MahalingapurMudhol</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>Bagalkot</t>
         </is>
       </c>
@@ -750,6 +805,11 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
+          <t>G H S KakhandakiVijayapur Rural</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
           <t>Vijayapur</t>
         </is>
       </c>
@@ -777,6 +837,11 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
+          <t>Govt. P U College(HS) BanahattiJamkhandi</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
           <t>Bagalkot</t>
         </is>
       </c>
@@ -801,6 +866,11 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
+          <t>B Siddannaiah High School Ballupet(P)Sakaleshpur</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -828,6 +898,11 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
+          <t>G H S GadwantiHumnabad</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -855,6 +930,11 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
+          <t>G H S Harisandra</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
           <t>Ramanagara</t>
         </is>
       </c>
@@ -882,6 +962,11 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
+          <t>G H S HalebelagolaChannaraya Patana</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -906,7 +991,8 @@
           <t>GULSHAN ARA BEGUM</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr">
         <is>
           <t>GULSHAN ARA BEGU</t>
         </is>
@@ -924,6 +1010,11 @@
         </is>
       </c>
       <c r="F20" t="inlineStr">
+        <is>
+          <t>G U H SchoolChannagiri</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
         <is>
           <t>Davanagere</t>
         </is>
@@ -952,6 +1043,11 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
+          <t>G H S H Basavapura</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
           <t>Davanagere</t>
         </is>
       </c>
@@ -979,6 +1075,11 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
+          <t>Govt. High SchoolChintakiAurad</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -1006,6 +1107,11 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
+          <t>Sri Adichunchanagiri High School K KrihallyKowshika Post</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -1033,6 +1139,11 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
+          <t>G U H S Extension Ramanagara Town</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
           <t>Ramanagara</t>
         </is>
       </c>
@@ -1060,6 +1171,11 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
+          <t>Govt. High School KodlaSedam</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
           <t>Kalaburgi</t>
         </is>
       </c>
@@ -1087,6 +1203,11 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
+          <t>Shanthaveri Gopala Gowda High SchoolSydoorSagar</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
           <t>Shimoga</t>
         </is>
       </c>
@@ -1114,6 +1235,11 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
+          <t>G H S AkkimaradiMudhol</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
           <t>Bagalkot</t>
         </is>
       </c>
@@ -1138,6 +1264,11 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
+          <t>G H S ThoranagatteJagalur</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
           <t>Davanagere</t>
         </is>
       </c>
@@ -1162,6 +1293,11 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
+          <t>G H S MavinakatteChannagiri</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
           <t>Davanagere</t>
         </is>
       </c>
@@ -1189,6 +1325,11 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
+          <t>Ramadurga High School</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
           <t>Ramanagara</t>
         </is>
       </c>
@@ -1216,6 +1357,11 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
+          <t>Govt. Urdu High School JalwadSindgi</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
           <t>Vijayapur</t>
         </is>
       </c>
@@ -1243,6 +1389,11 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
+          <t>G H S Kuntinamadu Tarikere</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
           <t>Chikkamagalore</t>
         </is>
       </c>
@@ -1270,6 +1421,11 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
+          <t>Kanva Maharshi High School</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
           <t>Ramanagara</t>
         </is>
       </c>
@@ -1297,6 +1453,11 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
+          <t>G H S RamakrishnapuraThirthahalli</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
           <t>Shimoga</t>
         </is>
       </c>
@@ -1324,6 +1485,11 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
+          <t>Sangolli Rayanna High SchoolTuppadakurahattiNavalgund</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
           <t>Dharwad</t>
         </is>
       </c>
@@ -1351,6 +1517,11 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
+          <t>S A P U C Annigeri</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
           <t>Navalgund</t>
         </is>
       </c>
@@ -1366,7 +1537,8 @@
           <t>Dharwad.</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr">
         <is>
           <t>Dharwad</t>
         </is>
@@ -1395,6 +1567,11 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
+          <t>Sanjose High School Godikoppa</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
           <t>Shimoga</t>
         </is>
       </c>
@@ -1422,6 +1599,11 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
+          <t>Jnanasindhu Rural High SchoolHallimala</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
           <t>Ramanagara</t>
         </is>
       </c>
@@ -1449,6 +1631,11 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
+          <t>Govt. High School B BasapuraDavanagere North</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
           <t>Davanagere</t>
         </is>
       </c>
@@ -1476,6 +1663,11 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
+          <t>G H S KunchawaramChincholi</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
           <t>Kalaburagi</t>
         </is>
       </c>
@@ -1503,6 +1695,11 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
+          <t>G H S Gopanahally</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -1530,6 +1727,11 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
+          <t>G H S HoranaduMoodigere</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
           <t>Chikmagalore</t>
         </is>
       </c>
@@ -1557,6 +1759,11 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
+          <t>Govt. High School BatgeraBasavakalyan</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -1584,6 +1791,11 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
+          <t>Shree Beereshwar High School ShiradonChadachan</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
           <t>Vijayapur</t>
         </is>
       </c>
@@ -1611,6 +1823,11 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
+          <t>G H S JainapurVijayapur Rural</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
           <t>Vijayapur</t>
         </is>
       </c>
@@ -1638,6 +1855,11 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
+          <t>Govt. High School Hebbakodi</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
           <t>Ramanagara</t>
         </is>
       </c>
@@ -1665,6 +1887,11 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
+          <t>Basaveshwar Comp. Jr. College</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
           <t>Bagalkot</t>
         </is>
       </c>
@@ -1692,6 +1919,11 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
+          <t>S S H S Gulagal JambagiMudhol</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
           <t>Bagalkot</t>
         </is>
       </c>
@@ -1719,6 +1951,11 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
+          <t>Govt. High School VangoorSakaleshpur</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -1746,6 +1983,11 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
+          <t>N E S High School Chittapur</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
           <t>Kalaburagi</t>
         </is>
       </c>
@@ -1773,6 +2015,11 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
+          <t>S H High School Nainegali</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
           <t>Bagalkot</t>
         </is>
       </c>
@@ -1797,6 +2044,11 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
+          <t>G H S Yarehalli</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
           <t>Ramanagara</t>
         </is>
       </c>
@@ -1824,6 +2076,11 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
+          <t>Pragati H S MahalingpurMudhol</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
           <t>Bagalkot</t>
         </is>
       </c>
@@ -1851,6 +2108,11 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
+          <t>G H S Sriramanagara</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -1878,6 +2140,11 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
+          <t>G H S Kodiyala Karenahalli</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
           <t>Ramanagara</t>
         </is>
       </c>
@@ -1905,6 +2172,11 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
+          <t>K P S ArjunagiVijayapur Rural</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
           <t>Vijayapur</t>
         </is>
       </c>
@@ -1932,6 +2204,11 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
+          <t>G H S KhanadalKalaburagi South</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
           <t>Kalaburagi</t>
         </is>
       </c>
@@ -1959,6 +2236,11 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
+          <t>Govt. High School ShalavadiNavalgund</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
           <t>Dharwad</t>
         </is>
       </c>
@@ -1986,6 +2268,11 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
+          <t>St. Joseph High School Sakaleshapura</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -2013,6 +2300,11 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
+          <t>Govt. High School (RMSA) MutturJamkhandi</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
           <t>Bagalkot</t>
         </is>
       </c>
@@ -2036,6 +2328,11 @@
         </is>
       </c>
       <c r="F62" t="inlineStr">
+        <is>
+          <t>G U H S KerebilchiChannagiri</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
         <is>
           <t>Davangere</t>
         </is>

--- a/mathTransformed/HMPSTT_(2019-12-14)_58_4.xlsx
+++ b/mathTransformed/HMPSTT_(2019-12-14)_58_4.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H62"/>
+  <dimension ref="A1:G62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -589,7 +589,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Ramanagar</t>
+          <t>Ramanagara</t>
         </is>
       </c>
     </row>
@@ -810,7 +810,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Vijayapur</t>
+          <t>Vijayapura (Bijapur)</t>
         </is>
       </c>
     </row>
@@ -991,7 +991,6 @@
           <t>GULSHAN ARA BEGUM</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
           <t>GULSHAN ARA BEGU</t>
@@ -1016,7 +1015,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Davanagere</t>
+          <t>Davangere</t>
         </is>
       </c>
     </row>
@@ -1048,7 +1047,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Davanagere</t>
+          <t>Davangere</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1175,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Kalaburgi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -1269,7 +1268,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Davanagere</t>
+          <t>Davangere</t>
         </is>
       </c>
     </row>
@@ -1298,7 +1297,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Davanagere</t>
+          <t>Davangere</t>
         </is>
       </c>
     </row>
@@ -1362,7 +1361,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Vijayapur</t>
+          <t>Vijayapura (Bijapur)</t>
         </is>
       </c>
     </row>
@@ -1537,7 +1536,6 @@
           <t>Dharwad.</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
           <t>Dharwad</t>
@@ -1636,7 +1634,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Davanagere</t>
+          <t>Davangere</t>
         </is>
       </c>
     </row>
@@ -1668,7 +1666,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Kalaburagi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -1796,7 +1794,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Vijayapur</t>
+          <t>Vijayapura (Bijapur)</t>
         </is>
       </c>
     </row>
@@ -1828,7 +1826,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Vijayapur</t>
+          <t>Vijayapura (Bijapur)</t>
         </is>
       </c>
     </row>
@@ -1988,7 +1986,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Kalaburagi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -2177,7 +2175,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Vijayapur</t>
+          <t>Vijayapura (Bijapur)</t>
         </is>
       </c>
     </row>
@@ -2209,7 +2207,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Kalaburagi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>

--- a/mathTransformed/HMPSTT_(2019-12-14)_58_4.xlsx
+++ b/mathTransformed/HMPSTT_(2019-12-14)_58_4.xlsx
@@ -714,7 +714,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Shivamogga</t>
+          <t>Shivamogga (Shimoga)</t>
         </is>
       </c>
     </row>
@@ -746,7 +746,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Shivamogga</t>
+          <t>Shivamogga (Shimoga)</t>
         </is>
       </c>
     </row>
@@ -1207,7 +1207,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Shimoga</t>
+          <t>Shivamogga (Shimoga)</t>
         </is>
       </c>
     </row>
@@ -1393,7 +1393,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Chikkamagalore</t>
+          <t>Chikkamagaluru (Chikmagalur)</t>
         </is>
       </c>
     </row>
@@ -1457,7 +1457,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Shimoga</t>
+          <t>Shivamogga (Shimoga)</t>
         </is>
       </c>
     </row>
@@ -1521,7 +1521,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Navalgund</t>
+          <t>Dharwad</t>
         </is>
       </c>
     </row>
@@ -1570,7 +1570,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Shimoga</t>
+          <t>Shivamogga (Shimoga)</t>
         </is>
       </c>
     </row>
@@ -1730,7 +1730,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Chikmagalore</t>
+          <t>Chikkamagaluru (Chikmagalur)</t>
         </is>
       </c>
     </row>
